--- a/Homework2/HW2Data/Part2/SnakeAndLadders/Markov/SnakeAndLadders_Markov_DataAnalysis.xlsx
+++ b/Homework2/HW2Data/Part2/SnakeAndLadders/Markov/SnakeAndLadders_Markov_DataAnalysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RCP\UCF\IDS6938\MyRepository\IDS6938-SimulationTechniques\Homework2\HW2Data\Part2\SnakeAndLadders\Markov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RCP\UCF\Modeling_and_Simulation\IDS6938_Spring2017\MyRepository\IDS6938-SimulationTechniques\Homework2\HW2Data\Part2\SnakeAndLadders\Markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="10956" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transition Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Probability Distribution Matrix" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -108,13 +108,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -122,17 +128,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cummulative</a:t>
+              <a:t>Markov</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> probability of finishing gqame in n-moves</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Snake and Ladders Game</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cummulative probability of finishing game in n-moves</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -146,13 +162,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -171,21 +193,30 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Percentage %</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Probability Distribution Matrix'!$CX$3:$CX$103</c:f>
+              <c:f>'Probability Distribution Matrix'!$CY$3:$CY$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -205,297 +236,302 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1433499999999999E-4</c:v>
+                  <c:v>2.1433499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6434599999999998E-3</c:v>
+                  <c:v>0.26434599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4843099999999993E-3</c:v>
+                  <c:v>0.94843099999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9855299999999999E-2</c:v>
+                  <c:v>1.98553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2011699999999997E-2</c:v>
+                  <c:v>3.2011699999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6689700000000001E-2</c:v>
+                  <c:v>4.6689699999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5608600000000003E-2</c:v>
+                  <c:v>6.5608599999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8957099999999997E-2</c:v>
+                  <c:v>8.8957099999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11580600000000001</c:v>
+                  <c:v>11.5806</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14560300000000001</c:v>
+                  <c:v>14.560300000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17830599999999999</c:v>
+                  <c:v>17.8306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21348900000000001</c:v>
+                  <c:v>21.3489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25000099999999997</c:v>
+                  <c:v>25.000099999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28655900000000001</c:v>
+                  <c:v>28.655900000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32242999999999999</c:v>
+                  <c:v>32.243000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.357456</c:v>
+                  <c:v>35.745599999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39163399999999998</c:v>
+                  <c:v>39.163399999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.424794</c:v>
+                  <c:v>42.479399999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.456623</c:v>
+                  <c:v>45.662300000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.48686000000000001</c:v>
+                  <c:v>48.686</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.51541899999999996</c:v>
+                  <c:v>51.541899999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.54235500000000003</c:v>
+                  <c:v>54.235500000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56777599999999995</c:v>
+                  <c:v>56.777599999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59176899999999999</c:v>
+                  <c:v>59.176899999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.614398</c:v>
+                  <c:v>61.439799999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.63572399999999996</c:v>
+                  <c:v>63.572399999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.65582099999999999</c:v>
+                  <c:v>65.582099999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67477799999999999</c:v>
+                  <c:v>67.477800000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.69267800000000002</c:v>
+                  <c:v>69.267800000000008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.70959300000000003</c:v>
+                  <c:v>70.959299999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.72557799999999995</c:v>
+                  <c:v>72.5578</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.74068400000000001</c:v>
+                  <c:v>74.068399999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.75495800000000002</c:v>
+                  <c:v>75.495800000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.76844699999999999</c:v>
+                  <c:v>76.844700000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.781196</c:v>
+                  <c:v>78.119600000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.79324700000000004</c:v>
+                  <c:v>79.324700000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.80463600000000002</c:v>
+                  <c:v>80.4636</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.81539899999999998</c:v>
+                  <c:v>81.539900000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.825569</c:v>
+                  <c:v>82.556899999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.835179</c:v>
+                  <c:v>83.517899999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.84425899999999998</c:v>
+                  <c:v>84.425899999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.85284000000000004</c:v>
+                  <c:v>85.284000000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.86094700000000002</c:v>
+                  <c:v>86.094700000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.86860800000000005</c:v>
+                  <c:v>86.860800000000012</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.87584700000000004</c:v>
+                  <c:v>87.584699999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.88268599999999997</c:v>
+                  <c:v>88.268599999999992</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.88914899999999997</c:v>
+                  <c:v>88.914900000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.89525600000000005</c:v>
+                  <c:v>89.525600000000011</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.90102599999999999</c:v>
+                  <c:v>90.102599999999995</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.90647800000000001</c:v>
+                  <c:v>90.647800000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.91163000000000005</c:v>
+                  <c:v>91.163000000000011</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.91649800000000003</c:v>
+                  <c:v>91.649799999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.92109799999999997</c:v>
+                  <c:v>92.109799999999993</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.92544499999999996</c:v>
+                  <c:v>92.544499999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.92955200000000004</c:v>
+                  <c:v>92.955200000000005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.93343299999999996</c:v>
+                  <c:v>93.343299999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.93710000000000004</c:v>
+                  <c:v>93.710000000000008</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.94056499999999998</c:v>
+                  <c:v>94.0565</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.94383899999999998</c:v>
+                  <c:v>94.383899999999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.94693300000000002</c:v>
+                  <c:v>94.693300000000008</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.94985699999999995</c:v>
+                  <c:v>94.985699999999994</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.95261899999999999</c:v>
+                  <c:v>95.261899999999997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.95522899999999999</c:v>
+                  <c:v>95.522899999999993</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.95769599999999999</c:v>
+                  <c:v>95.769599999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.96002600000000005</c:v>
+                  <c:v>96.002600000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.96222799999999997</c:v>
+                  <c:v>96.222799999999992</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.96430899999999997</c:v>
+                  <c:v>96.430899999999994</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.966275</c:v>
+                  <c:v>96.627499999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.96813300000000002</c:v>
+                  <c:v>96.813299999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.969889</c:v>
+                  <c:v>96.988900000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.97154799999999997</c:v>
+                  <c:v>97.154799999999994</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.97311499999999995</c:v>
+                  <c:v>97.311499999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.97459600000000002</c:v>
+                  <c:v>97.459599999999995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.97599599999999997</c:v>
+                  <c:v>97.599599999999995</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.97731800000000002</c:v>
+                  <c:v>97.731800000000007</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.97856799999999999</c:v>
+                  <c:v>97.856799999999993</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.97974799999999995</c:v>
+                  <c:v>97.974800000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.98086399999999996</c:v>
+                  <c:v>98.086399999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.98191799999999996</c:v>
+                  <c:v>98.191800000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.98291399999999995</c:v>
+                  <c:v>98.291399999999996</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.98385599999999995</c:v>
+                  <c:v>98.385599999999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.98474499999999998</c:v>
+                  <c:v>98.474499999999992</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.98558599999999996</c:v>
+                  <c:v>98.558599999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.98638000000000003</c:v>
+                  <c:v>98.638000000000005</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.98712999999999995</c:v>
+                  <c:v>98.712999999999994</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98783900000000002</c:v>
+                  <c:v>98.783900000000003</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.98850899999999997</c:v>
+                  <c:v>98.850899999999996</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98914199999999997</c:v>
+                  <c:v>98.914199999999994</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.98973999999999995</c:v>
+                  <c:v>98.97399999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99030499999999999</c:v>
+                  <c:v>99.030500000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99084000000000005</c:v>
+                  <c:v>99.084000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.991344</c:v>
+                  <c:v>99.134399999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99182099999999995</c:v>
+                  <c:v>99.182099999999991</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99227200000000004</c:v>
+                  <c:v>99.227200000000011</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99269799999999997</c:v>
+                  <c:v>99.269800000000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.99309999999999998</c:v>
+                  <c:v>99.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-780C-4066-9434-55FD9ADD6DD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -505,6 +541,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
         <c:axId val="291824544"/>
         <c:axId val="291834736"/>
@@ -516,6 +566,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of rolls</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -523,9 +626,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -539,9 +642,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -570,9 +672,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -580,8 +682,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -598,9 +758,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -628,17 +787,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -661,7 +831,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -681,13 +851,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -695,17 +871,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Percentage of Chance</a:t>
+              <a:t>Markov</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of finishing the game in n-moves</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage of Chance of finishing the game in n-moves</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -719,13 +897,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -745,13 +929,19 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1069,6 +1259,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-630A-4F23-8B0B-9C9B11320F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1078,6 +1273,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
         <c:axId val="344718320"/>
         <c:axId val="344729688"/>
@@ -1089,6 +1298,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Rolls</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1096,9 +1358,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1112,9 +1374,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1143,9 +1404,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1153,8 +1414,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage of Game completed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1171,9 +1490,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1201,17 +1519,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1314,35 +1643,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1350,26 +1677,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1378,9 +1713,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1399,14 +1733,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1415,45 +1741,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1465,31 +1781,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1507,21 +1821,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1531,20 +1842,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1558,14 +1869,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1579,9 +1890,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1595,12 +1905,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1612,9 +1916,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1629,14 +1933,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1648,14 +1951,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1667,14 +1970,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1683,14 +1985,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1698,7 +1999,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1711,11 +2012,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1723,14 +2034,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1742,12 +2053,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1763,7 +2081,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1772,9 +2089,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1784,7 +2100,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1792,9 +2108,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1805,9 +2121,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1819,46 +2134,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1866,26 +2173,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1894,9 +2209,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1915,14 +2229,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1931,45 +2237,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1981,31 +2277,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2023,21 +2317,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2047,20 +2338,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2074,14 +2365,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2095,9 +2386,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2111,12 +2401,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2128,9 +2412,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2145,14 +2429,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2164,14 +2447,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2183,14 +2466,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2199,14 +2481,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2214,7 +2495,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2227,11 +2508,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2239,14 +2530,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2258,12 +2549,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2279,7 +2577,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2288,9 +2585,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2300,7 +2596,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2308,9 +2604,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2321,9 +2617,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2335,12 +2630,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2349,20 +2638,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>461010</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2379,20 +2674,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>544830</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2486,6 +2787,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2521,6 +2839,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2679,14 +3014,14 @@
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2991,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3296,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3601,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3906,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4211,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4516,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4821,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5126,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5431,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5736,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6041,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6346,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6651,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6956,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -7261,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -7566,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -7871,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -8176,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8481,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -8786,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -9091,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -9396,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -9701,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -10006,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10311,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -10616,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -10921,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -11226,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -11531,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -11836,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -12141,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -12446,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -12751,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -13056,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -13361,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -13666,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -13971,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -14276,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -14581,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -14886,7 +15221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -15191,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -15496,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -15801,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -16106,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -16411,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -16716,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -17021,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -17326,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -17631,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -17936,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -18241,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -18546,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -18851,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -19156,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -19461,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -19766,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -20071,7 +20406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -20376,7 +20711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -20681,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -20986,7 +21321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -21291,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -21596,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -21901,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -22206,7 +22541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -22511,7 +22846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -22816,7 +23151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -23121,7 +23456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -23426,7 +23761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -23731,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -24036,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -24341,7 +24676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -24646,7 +24981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -24951,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -25256,7 +25591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -25561,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -25866,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -26171,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -26476,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -26781,7 +27116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -27086,7 +27421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -27391,7 +27726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -27696,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -28001,7 +28336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -28306,7 +28641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -28611,7 +28946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -28916,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -29221,7 +29556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -29526,7 +29861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -29831,7 +30166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -30136,7 +30471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -30441,7 +30776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -30746,7 +31081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0</v>
       </c>
@@ -31051,7 +31386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -31356,7 +31691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0</v>
       </c>
@@ -31661,7 +31996,7 @@
         <v>0.16666700000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -31966,7 +32301,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -32271,7 +32606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -32576,7 +32911,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -32881,7 +33216,7 @@
         <v>0.83333299999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -33186,7 +33521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -33501,20 +33836,20 @@
   <dimension ref="A1:DC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CN73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DB63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW106" sqref="B106:CW106"/>
+      <selection pane="bottomRight" activeCell="DJ92" sqref="DJ92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -33919,7 +34254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -34226,12 +34561,16 @@
       <c r="CX3">
         <v>0</v>
       </c>
+      <c r="CY3">
+        <f>CX3 * 100</f>
+        <v>0</v>
+      </c>
       <c r="DC3">
         <f>CV3 * 100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3 +1</f>
         <v>1</v>
@@ -34539,14 +34878,18 @@
       <c r="CX4">
         <v>0</v>
       </c>
+      <c r="CY4">
+        <f t="shared" ref="CY4:CY67" si="2">CX4 * 100</f>
+        <v>0</v>
+      </c>
       <c r="DC4">
-        <f t="shared" ref="DC4:DC67" si="2">CV4 * 100</f>
+        <f t="shared" ref="DC4:DC67" si="3">CV4 * 100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A68" si="3">A4 +1</f>
+        <f t="shared" ref="A5:A68" si="4">A4 +1</f>
         <v>2</v>
       </c>
       <c r="B5">
@@ -34852,14 +35195,18 @@
       <c r="CX5">
         <v>0</v>
       </c>
+      <c r="CY5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="DC5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B6">
@@ -35165,14 +35512,18 @@
       <c r="CX6">
         <v>0</v>
       </c>
+      <c r="CY6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="DC6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B7">
@@ -35478,14 +35829,18 @@
       <c r="CX7">
         <v>0</v>
       </c>
+      <c r="CY7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="DC7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B8">
@@ -35791,14 +36146,18 @@
       <c r="CX8">
         <v>2.1433499999999999E-4</v>
       </c>
+      <c r="CY8">
+        <f t="shared" si="2"/>
+        <v>2.1433499999999998E-2</v>
+      </c>
       <c r="DC8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.111454</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B9">
@@ -36104,14 +36463,18 @@
       <c r="CX9">
         <v>2.6434599999999998E-3</v>
       </c>
+      <c r="CY9">
+        <f t="shared" si="2"/>
+        <v>0.26434599999999997</v>
+      </c>
       <c r="DC9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.414738</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B10">
@@ -36417,14 +36780,18 @@
       <c r="CX10">
         <v>9.4843099999999993E-3</v>
       </c>
+      <c r="CY10">
+        <f t="shared" si="2"/>
+        <v>0.94843099999999991</v>
+      </c>
       <c r="DC10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70140999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B11">
@@ -36730,14 +37097,18 @@
       <c r="CX11">
         <v>1.9855299999999999E-2</v>
       </c>
+      <c r="CY11">
+        <f t="shared" si="2"/>
+        <v>1.98553</v>
+      </c>
       <c r="DC11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81812399999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B12">
@@ -37043,14 +37414,18 @@
       <c r="CX12">
         <v>3.2011699999999997E-2</v>
       </c>
+      <c r="CY12">
+        <f t="shared" si="2"/>
+        <v>3.2011699999999998</v>
+      </c>
       <c r="DC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91126799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B13">
@@ -37356,14 +37731,18 @@
       <c r="CX13">
         <v>4.6689700000000001E-2</v>
       </c>
+      <c r="CY13">
+        <f t="shared" si="2"/>
+        <v>4.6689699999999998</v>
+      </c>
       <c r="DC13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1218999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B14">
@@ -37669,14 +38048,18 @@
       <c r="CX14">
         <v>6.5608600000000003E-2</v>
       </c>
+      <c r="CY14">
+        <f t="shared" si="2"/>
+        <v>6.5608599999999999</v>
+      </c>
       <c r="DC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.38096</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B15">
@@ -37982,14 +38365,18 @@
       <c r="CX15">
         <v>8.8957099999999997E-2</v>
       </c>
+      <c r="CY15">
+        <f t="shared" si="2"/>
+        <v>8.8957099999999993</v>
+      </c>
       <c r="DC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5740099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B16">
@@ -38295,14 +38682,18 @@
       <c r="CX16">
         <v>0.11580600000000001</v>
       </c>
+      <c r="CY16">
+        <f t="shared" si="2"/>
+        <v>11.5806</v>
+      </c>
       <c r="DC16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7010399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B17">
@@ -38608,14 +38999,18 @@
       <c r="CX17">
         <v>0.14560300000000001</v>
       </c>
+      <c r="CY17">
+        <f t="shared" si="2"/>
+        <v>14.560300000000002</v>
+      </c>
       <c r="DC17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8264699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B18">
@@ -38921,14 +39316,18 @@
       <c r="CX18">
         <v>0.17830599999999999</v>
       </c>
+      <c r="CY18">
+        <f t="shared" si="2"/>
+        <v>17.8306</v>
+      </c>
       <c r="DC18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9636799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B19">
@@ -39234,14 +39633,18 @@
       <c r="CX19">
         <v>0.21348900000000001</v>
       </c>
+      <c r="CY19">
+        <f t="shared" si="2"/>
+        <v>21.3489</v>
+      </c>
       <c r="DC19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0618699999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B20">
@@ -39547,14 +39950,18 @@
       <c r="CX20">
         <v>0.25000099999999997</v>
       </c>
+      <c r="CY20">
+        <f t="shared" si="2"/>
+        <v>25.000099999999996</v>
+      </c>
       <c r="DC20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.07959</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B21">
@@ -39860,14 +40267,18 @@
       <c r="CX21">
         <v>0.28655900000000001</v>
       </c>
+      <c r="CY21">
+        <f t="shared" si="2"/>
+        <v>28.655900000000003</v>
+      </c>
       <c r="DC21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0310000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B22">
@@ -40173,14 +40584,18 @@
       <c r="CX22">
         <v>0.32242999999999999</v>
       </c>
+      <c r="CY22">
+        <f t="shared" si="2"/>
+        <v>32.243000000000002</v>
+      </c>
       <c r="DC22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.96123</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B23">
@@ -40485,19 +40900,23 @@
       </c>
       <c r="CX23">
         <v>0.357456</v>
+      </c>
+      <c r="CY23">
+        <f t="shared" si="2"/>
+        <v>35.745599999999996</v>
       </c>
       <c r="CZ23">
         <f>SUM(CX8:CX23)</f>
         <v>2.1351145049999998</v>
       </c>
       <c r="DC23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8996699999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B24">
@@ -40803,14 +41222,18 @@
       <c r="CX24">
         <v>0.39163399999999998</v>
       </c>
+      <c r="CY24">
+        <f t="shared" si="2"/>
+        <v>39.163399999999996</v>
+      </c>
       <c r="DC24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8444499999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B25">
@@ -41116,14 +41539,18 @@
       <c r="CX25">
         <v>0.424794</v>
       </c>
+      <c r="CY25">
+        <f t="shared" si="2"/>
+        <v>42.479399999999998</v>
+      </c>
       <c r="DC25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7800099999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B26">
@@ -41429,14 +41856,18 @@
       <c r="CX26">
         <v>0.456623</v>
       </c>
+      <c r="CY26">
+        <f t="shared" si="2"/>
+        <v>45.662300000000002</v>
+      </c>
       <c r="DC26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6984699999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B27">
@@ -41742,14 +42173,18 @@
       <c r="CX27">
         <v>0.48686000000000001</v>
       </c>
+      <c r="CY27">
+        <f t="shared" si="2"/>
+        <v>48.686</v>
+      </c>
       <c r="DC27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6051</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B28">
@@ -42055,14 +42490,18 @@
       <c r="CX28">
         <v>0.51541899999999996</v>
       </c>
+      <c r="CY28">
+        <f t="shared" si="2"/>
+        <v>51.541899999999998</v>
+      </c>
       <c r="DC28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.51058</v>
       </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B29">
@@ -42368,14 +42807,18 @@
       <c r="CX29">
         <v>0.54235500000000003</v>
       </c>
+      <c r="CY29">
+        <f t="shared" si="2"/>
+        <v>54.235500000000002</v>
+      </c>
       <c r="DC29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.42225</v>
       </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B30">
@@ -42681,14 +43124,18 @@
       <c r="CX30">
         <v>0.56777599999999995</v>
       </c>
+      <c r="CY30">
+        <f t="shared" si="2"/>
+        <v>56.777599999999993</v>
+      </c>
       <c r="DC30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3414000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B31">
@@ -42994,14 +43441,18 @@
       <c r="CX31">
         <v>0.59176899999999999</v>
       </c>
+      <c r="CY31">
+        <f t="shared" si="2"/>
+        <v>59.176899999999996</v>
+      </c>
       <c r="DC31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.26597</v>
       </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B32">
@@ -43307,14 +43758,18 @@
       <c r="CX32">
         <v>0.614398</v>
       </c>
+      <c r="CY32">
+        <f t="shared" si="2"/>
+        <v>61.439799999999998</v>
+      </c>
       <c r="DC32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.19411</v>
       </c>
     </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B33">
@@ -43620,14 +44075,18 @@
       <c r="CX33">
         <v>0.63572399999999996</v>
       </c>
+      <c r="CY33">
+        <f t="shared" si="2"/>
+        <v>63.572399999999995</v>
+      </c>
       <c r="DC33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1256600000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B34">
@@ -43933,14 +44392,18 @@
       <c r="CX34">
         <v>0.65582099999999999</v>
       </c>
+      <c r="CY34">
+        <f t="shared" si="2"/>
+        <v>65.582099999999997</v>
+      </c>
       <c r="DC34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.06141</v>
       </c>
     </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B35">
@@ -44246,14 +44709,18 @@
       <c r="CX35">
         <v>0.67477799999999999</v>
       </c>
+      <c r="CY35">
+        <f t="shared" si="2"/>
+        <v>67.477800000000002</v>
+      </c>
       <c r="DC35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0018400000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B36">
@@ -44559,14 +45026,18 @@
       <c r="CX36">
         <v>0.69267800000000002</v>
       </c>
+      <c r="CY36">
+        <f t="shared" si="2"/>
+        <v>69.267800000000008</v>
+      </c>
       <c r="DC36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94657599999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B37">
@@ -44872,14 +45343,18 @@
       <c r="CX37">
         <v>0.70959300000000003</v>
       </c>
+      <c r="CY37">
+        <f t="shared" si="2"/>
+        <v>70.959299999999999</v>
+      </c>
       <c r="DC37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89476800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B38">
@@ -45185,14 +45660,18 @@
       <c r="CX38">
         <v>0.72557799999999995</v>
       </c>
+      <c r="CY38">
+        <f t="shared" si="2"/>
+        <v>72.5578</v>
+      </c>
       <c r="DC38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84573300000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B39">
@@ -45498,14 +45977,18 @@
       <c r="CX39">
         <v>0.74068400000000001</v>
       </c>
+      <c r="CY39">
+        <f t="shared" si="2"/>
+        <v>74.068399999999997</v>
+      </c>
       <c r="DC39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.799207</v>
       </c>
     </row>
-    <row r="40" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B40">
@@ -45811,14 +46294,18 @@
       <c r="CX40">
         <v>0.75495800000000002</v>
       </c>
+      <c r="CY40">
+        <f t="shared" si="2"/>
+        <v>75.495800000000003</v>
+      </c>
       <c r="DC40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75519199999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B41">
@@ -46124,14 +46611,18 @@
       <c r="CX41">
         <v>0.76844699999999999</v>
       </c>
+      <c r="CY41">
+        <f t="shared" si="2"/>
+        <v>76.844700000000003</v>
+      </c>
       <c r="DC41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71368399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B42">
@@ -46437,14 +46928,18 @@
       <c r="CX42">
         <v>0.781196</v>
       </c>
+      <c r="CY42">
+        <f t="shared" si="2"/>
+        <v>78.119600000000005</v>
+      </c>
       <c r="DC42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67454599999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B43">
@@ -46750,14 +47245,18 @@
       <c r="CX43">
         <v>0.79324700000000004</v>
       </c>
+      <c r="CY43">
+        <f t="shared" si="2"/>
+        <v>79.324700000000007</v>
+      </c>
       <c r="DC43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63756200000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B44">
@@ -47063,14 +47562,18 @@
       <c r="CX44">
         <v>0.80463600000000002</v>
       </c>
+      <c r="CY44">
+        <f t="shared" si="2"/>
+        <v>80.4636</v>
+      </c>
       <c r="DC44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60254099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B45">
@@ -47376,14 +47879,18 @@
       <c r="CX45">
         <v>0.81539899999999998</v>
       </c>
+      <c r="CY45">
+        <f t="shared" si="2"/>
+        <v>81.539900000000003</v>
+      </c>
       <c r="DC45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56936900000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B46">
@@ -47689,14 +48196,18 @@
       <c r="CX46">
         <v>0.825569</v>
       </c>
+      <c r="CY46">
+        <f t="shared" si="2"/>
+        <v>82.556899999999999</v>
+      </c>
       <c r="DC46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53798699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B47">
@@ -48002,14 +48513,18 @@
       <c r="CX47">
         <v>0.835179</v>
       </c>
+      <c r="CY47">
+        <f t="shared" si="2"/>
+        <v>83.517899999999997</v>
+      </c>
       <c r="DC47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50833400000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B48">
@@ -48315,14 +48830,18 @@
       <c r="CX48">
         <v>0.84425899999999998</v>
       </c>
+      <c r="CY48">
+        <f t="shared" si="2"/>
+        <v>84.425899999999999</v>
+      </c>
       <c r="DC48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48032799999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B49">
@@ -48628,14 +49147,18 @@
       <c r="CX49">
         <v>0.85284000000000004</v>
       </c>
+      <c r="CY49">
+        <f t="shared" si="2"/>
+        <v>85.284000000000006</v>
+      </c>
       <c r="DC49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45387</v>
       </c>
     </row>
-    <row r="50" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B50">
@@ -48941,14 +49464,18 @@
       <c r="CX50">
         <v>0.86094700000000002</v>
       </c>
+      <c r="CY50">
+        <f t="shared" si="2"/>
+        <v>86.094700000000003</v>
+      </c>
       <c r="DC50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42886399999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B51">
@@ -49254,14 +49781,18 @@
       <c r="CX51">
         <v>0.86860800000000005</v>
       </c>
+      <c r="CY51">
+        <f t="shared" si="2"/>
+        <v>86.860800000000012</v>
+      </c>
       <c r="DC51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40522800000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B52">
@@ -49567,14 +50098,18 @@
       <c r="CX52">
         <v>0.87584700000000004</v>
       </c>
+      <c r="CY52">
+        <f t="shared" si="2"/>
+        <v>87.584699999999998</v>
+      </c>
       <c r="DC52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38289299999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B53">
@@ -49880,14 +50415,18 @@
       <c r="CX53">
         <v>0.88268599999999997</v>
       </c>
+      <c r="CY53">
+        <f t="shared" si="2"/>
+        <v>88.268599999999992</v>
+      </c>
       <c r="DC53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.361792</v>
       </c>
     </row>
-    <row r="54" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B54">
@@ -50193,14 +50732,18 @@
       <c r="CX54">
         <v>0.88914899999999997</v>
       </c>
+      <c r="CY54">
+        <f t="shared" si="2"/>
+        <v>88.914900000000003</v>
+      </c>
       <c r="DC54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34185900000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B55">
@@ -50506,14 +51049,18 @@
       <c r="CX55">
         <v>0.89525600000000005</v>
       </c>
+      <c r="CY55">
+        <f t="shared" si="2"/>
+        <v>89.525600000000011</v>
+      </c>
       <c r="DC55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32302799999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B56">
@@ -50819,14 +51366,18 @@
       <c r="CX56">
         <v>0.90102599999999999</v>
       </c>
+      <c r="CY56">
+        <f t="shared" si="2"/>
+        <v>90.102599999999995</v>
+      </c>
       <c r="DC56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30523299999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B57">
@@ -51132,14 +51683,18 @@
       <c r="CX57">
         <v>0.90647800000000001</v>
       </c>
+      <c r="CY57">
+        <f t="shared" si="2"/>
+        <v>90.647800000000004</v>
+      </c>
       <c r="DC57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28841800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B58">
@@ -51445,14 +52000,18 @@
       <c r="CX58">
         <v>0.91163000000000005</v>
       </c>
+      <c r="CY58">
+        <f t="shared" si="2"/>
+        <v>91.163000000000011</v>
+      </c>
       <c r="DC58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27252900000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B59">
@@ -51758,14 +52317,18 @@
       <c r="CX59">
         <v>0.91649800000000003</v>
       </c>
+      <c r="CY59">
+        <f t="shared" si="2"/>
+        <v>91.649799999999999</v>
+      </c>
       <c r="DC59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25751599999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B60">
@@ -52071,14 +52634,18 @@
       <c r="CX60">
         <v>0.92109799999999997</v>
       </c>
+      <c r="CY60">
+        <f t="shared" si="2"/>
+        <v>92.109799999999993</v>
+      </c>
       <c r="DC60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24332999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B61">
@@ -52384,14 +52951,18 @@
       <c r="CX61">
         <v>0.92544499999999996</v>
       </c>
+      <c r="CY61">
+        <f t="shared" si="2"/>
+        <v>92.544499999999999</v>
+      </c>
       <c r="DC61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22992599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B62">
@@ -52697,14 +53268,18 @@
       <c r="CX62">
         <v>0.92955200000000004</v>
       </c>
+      <c r="CY62">
+        <f t="shared" si="2"/>
+        <v>92.955200000000005</v>
+      </c>
       <c r="DC62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21725999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B63">
@@ -53010,14 +53585,18 @@
       <c r="CX63">
         <v>0.93343299999999996</v>
       </c>
+      <c r="CY63">
+        <f t="shared" si="2"/>
+        <v>93.343299999999999</v>
+      </c>
       <c r="DC63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20529200000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="B64">
@@ -53323,14 +53902,18 @@
       <c r="CX64">
         <v>0.93710000000000004</v>
       </c>
+      <c r="CY64">
+        <f t="shared" si="2"/>
+        <v>93.710000000000008</v>
+      </c>
       <c r="DC64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19398300000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="B65">
@@ -53636,14 +54219,18 @@
       <c r="CX65">
         <v>0.94056499999999998</v>
       </c>
+      <c r="CY65">
+        <f t="shared" si="2"/>
+        <v>94.0565</v>
+      </c>
       <c r="DC65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18329600000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B66">
@@ -53949,14 +54536,18 @@
       <c r="CX66">
         <v>0.94383899999999998</v>
       </c>
+      <c r="CY66">
+        <f t="shared" si="2"/>
+        <v>94.383899999999997</v>
+      </c>
       <c r="DC66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17319900000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="B67">
@@ -54262,14 +54853,18 @@
       <c r="CX67">
         <v>0.94693300000000002</v>
       </c>
+      <c r="CY67">
+        <f t="shared" si="2"/>
+        <v>94.693300000000008</v>
+      </c>
       <c r="DC67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.163657</v>
       </c>
     </row>
-    <row r="68" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="B68">
@@ -54575,14 +55170,18 @@
       <c r="CX68">
         <v>0.94985699999999995</v>
       </c>
+      <c r="CY68">
+        <f t="shared" ref="CY68:CY103" si="5">CX68 * 100</f>
+        <v>94.985699999999994</v>
+      </c>
       <c r="DC68">
-        <f t="shared" ref="DC68:DC103" si="4">CV68 * 100</f>
+        <f t="shared" ref="DC68:DC103" si="6">CV68 * 100</f>
         <v>0.154642</v>
       </c>
     </row>
-    <row r="69" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" ref="A69:A103" si="5">A68 +1</f>
+        <f t="shared" ref="A69:A103" si="7">A68 +1</f>
         <v>66</v>
       </c>
       <c r="B69">
@@ -54888,14 +55487,18 @@
       <c r="CX69">
         <v>0.95261899999999999</v>
       </c>
+      <c r="CY69">
+        <f t="shared" si="5"/>
+        <v>95.261899999999997</v>
+      </c>
       <c r="DC69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.146123</v>
       </c>
     </row>
-    <row r="70" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="B70">
@@ -55201,14 +55804,18 @@
       <c r="CX70">
         <v>0.95522899999999999</v>
       </c>
+      <c r="CY70">
+        <f t="shared" si="5"/>
+        <v>95.522899999999993</v>
+      </c>
       <c r="DC70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.138073</v>
       </c>
     </row>
-    <row r="71" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B71">
@@ -55514,14 +56121,18 @@
       <c r="CX71">
         <v>0.95769599999999999</v>
       </c>
+      <c r="CY71">
+        <f t="shared" si="5"/>
+        <v>95.769599999999997</v>
+      </c>
       <c r="DC71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.130467</v>
       </c>
     </row>
-    <row r="72" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="B72">
@@ -55827,14 +56438,18 @@
       <c r="CX72">
         <v>0.96002600000000005</v>
       </c>
+      <c r="CY72">
+        <f t="shared" si="5"/>
+        <v>96.002600000000001</v>
+      </c>
       <c r="DC72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12327900000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="B73">
@@ -56140,14 +56755,18 @@
       <c r="CX73">
         <v>0.96222799999999997</v>
       </c>
+      <c r="CY73">
+        <f t="shared" si="5"/>
+        <v>96.222799999999992</v>
+      </c>
       <c r="DC73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11648800000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="B74">
@@ -56453,14 +57072,18 @@
       <c r="CX74">
         <v>0.96430899999999997</v>
       </c>
+      <c r="CY74">
+        <f t="shared" si="5"/>
+        <v>96.430899999999994</v>
+      </c>
       <c r="DC74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.110071</v>
       </c>
     </row>
-    <row r="75" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="B75">
@@ -56766,14 +57389,18 @@
       <c r="CX75">
         <v>0.966275</v>
       </c>
+      <c r="CY75">
+        <f t="shared" si="5"/>
+        <v>96.627499999999998</v>
+      </c>
       <c r="DC75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10400699999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="B76">
@@ -57079,14 +57706,18 @@
       <c r="CX76">
         <v>0.96813300000000002</v>
       </c>
+      <c r="CY76">
+        <f t="shared" si="5"/>
+        <v>96.813299999999998</v>
+      </c>
       <c r="DC76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.827749999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="B77">
@@ -57392,14 +58023,18 @@
       <c r="CX77">
         <v>0.969889</v>
       </c>
+      <c r="CY77">
+        <f t="shared" si="5"/>
+        <v>96.988900000000001</v>
+      </c>
       <c r="DC77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.2863500000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="B78">
@@ -57705,14 +58340,18 @@
       <c r="CX78">
         <v>0.97154799999999997</v>
       </c>
+      <c r="CY78">
+        <f t="shared" si="5"/>
+        <v>97.154799999999994</v>
+      </c>
       <c r="DC78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.7747800000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="B79">
@@ -58018,14 +58657,18 @@
       <c r="CX79">
         <v>0.97311499999999995</v>
       </c>
+      <c r="CY79">
+        <f t="shared" si="5"/>
+        <v>97.311499999999995</v>
+      </c>
       <c r="DC79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.2913899999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="B80">
@@ -58331,14 +58974,18 @@
       <c r="CX80">
         <v>0.97459600000000002</v>
       </c>
+      <c r="CY80">
+        <f t="shared" si="5"/>
+        <v>97.459599999999995</v>
+      </c>
       <c r="DC80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.8346199999999991E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="B81">
@@ -58644,14 +59291,18 @@
       <c r="CX81">
         <v>0.97599599999999997</v>
       </c>
+      <c r="CY81">
+        <f t="shared" si="5"/>
+        <v>97.599599999999995</v>
+      </c>
       <c r="DC81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.403019999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="B82">
@@ -58957,14 +59608,18 @@
       <c r="CX82">
         <v>0.97731800000000002</v>
       </c>
+      <c r="CY82">
+        <f t="shared" si="5"/>
+        <v>97.731800000000007</v>
+      </c>
       <c r="DC82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9952E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="B83">
@@ -59270,14 +59925,18 @@
       <c r="CX83">
         <v>0.97856799999999999</v>
       </c>
+      <c r="CY83">
+        <f t="shared" si="5"/>
+        <v>97.856799999999993</v>
+      </c>
       <c r="DC83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.6098400000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="B84">
@@ -59583,14 +60242,18 @@
       <c r="CX84">
         <v>0.97974799999999995</v>
       </c>
+      <c r="CY84">
+        <f t="shared" si="5"/>
+        <v>97.974800000000002</v>
+      </c>
       <c r="DC84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.2457100000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="B85">
@@ -59896,14 +60559,18 @@
       <c r="CX85">
         <v>0.98086399999999996</v>
       </c>
+      <c r="CY85">
+        <f t="shared" si="5"/>
+        <v>98.086399999999998</v>
+      </c>
       <c r="DC85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.90165E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B86">
@@ -60209,14 +60876,18 @@
       <c r="CX86">
         <v>0.98191799999999996</v>
       </c>
+      <c r="CY86">
+        <f t="shared" si="5"/>
+        <v>98.191800000000001</v>
+      </c>
       <c r="DC86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5765299999999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="B87">
@@ -60522,14 +61193,18 @@
       <c r="CX87">
         <v>0.98291399999999995</v>
       </c>
+      <c r="CY87">
+        <f t="shared" si="5"/>
+        <v>98.291399999999996</v>
+      </c>
       <c r="DC87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2693300000000005E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="B88">
@@ -60835,14 +61510,18 @@
       <c r="CX88">
         <v>0.98385599999999995</v>
       </c>
+      <c r="CY88">
+        <f t="shared" si="5"/>
+        <v>98.385599999999997</v>
+      </c>
       <c r="DC88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.9790500000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="B89">
@@ -61148,14 +61827,18 @@
       <c r="CX89">
         <v>0.98474499999999998</v>
       </c>
+      <c r="CY89">
+        <f t="shared" si="5"/>
+        <v>98.474499999999992</v>
+      </c>
       <c r="DC89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7047600000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="B90">
@@ -61461,14 +62144,18 @@
       <c r="CX90">
         <v>0.98558599999999996</v>
       </c>
+      <c r="CY90">
+        <f t="shared" si="5"/>
+        <v>98.558599999999998</v>
+      </c>
       <c r="DC90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4455800000000004E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B91">
@@ -61774,14 +62461,18 @@
       <c r="CX91">
         <v>0.98638000000000003</v>
       </c>
+      <c r="CY91">
+        <f t="shared" si="5"/>
+        <v>98.638000000000005</v>
+      </c>
       <c r="DC91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.2006700000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="B92">
@@ -62087,14 +62778,18 @@
       <c r="CX92">
         <v>0.98712999999999995</v>
       </c>
+      <c r="CY92">
+        <f t="shared" si="5"/>
+        <v>98.712999999999994</v>
+      </c>
       <c r="DC92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.9692599999999995E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="B93">
@@ -62400,14 +63095,18 @@
       <c r="CX93">
         <v>0.98783900000000002</v>
       </c>
+      <c r="CY93">
+        <f t="shared" si="5"/>
+        <v>98.783900000000003</v>
+      </c>
       <c r="DC93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7505999999999998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="B94">
@@ -62713,14 +63412,18 @@
       <c r="CX94">
         <v>0.98850899999999997</v>
       </c>
+      <c r="CY94">
+        <f t="shared" si="5"/>
+        <v>98.850899999999996</v>
+      </c>
       <c r="DC94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5439899999999996E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="B95">
@@ -63026,14 +63729,18 @@
       <c r="CX95">
         <v>0.98914199999999997</v>
       </c>
+      <c r="CY95">
+        <f t="shared" si="5"/>
+        <v>98.914199999999994</v>
+      </c>
       <c r="DC95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3487499999999996E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="B96">
@@ -63339,14 +64046,18 @@
       <c r="CX96">
         <v>0.98973999999999995</v>
       </c>
+      <c r="CY96">
+        <f t="shared" si="5"/>
+        <v>98.97399999999999</v>
+      </c>
       <c r="DC96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1642699999999996E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="B97">
@@ -63652,14 +64363,18 @@
       <c r="CX97">
         <v>0.99030499999999999</v>
       </c>
+      <c r="CY97">
+        <f t="shared" si="5"/>
+        <v>99.030500000000004</v>
+      </c>
       <c r="DC97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9899599999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="B98">
@@ -63965,14 +64680,18 @@
       <c r="CX98">
         <v>0.99084000000000005</v>
       </c>
+      <c r="CY98">
+        <f t="shared" si="5"/>
+        <v>99.084000000000003</v>
+      </c>
       <c r="DC98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8252399999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="B99">
@@ -64278,14 +64997,18 @@
       <c r="CX99">
         <v>0.991344</v>
       </c>
+      <c r="CY99">
+        <f t="shared" si="5"/>
+        <v>99.134399999999999</v>
+      </c>
       <c r="DC99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6696000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="B100">
@@ -64591,14 +65314,18 @@
       <c r="CX100">
         <v>0.99182099999999995</v>
       </c>
+      <c r="CY100">
+        <f t="shared" si="5"/>
+        <v>99.182099999999991</v>
+      </c>
       <c r="DC100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5225399999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="B101">
@@ -64904,14 +65631,18 @@
       <c r="CX101">
         <v>0.99227200000000004</v>
       </c>
+      <c r="CY101">
+        <f t="shared" si="5"/>
+        <v>99.227200000000011</v>
+      </c>
       <c r="DC101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3835800000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="B102">
@@ -65217,14 +65948,18 @@
       <c r="CX102">
         <v>0.99269799999999997</v>
       </c>
+      <c r="CY102">
+        <f t="shared" si="5"/>
+        <v>99.269800000000004</v>
+      </c>
       <c r="DC102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.25227E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="B103">
@@ -65529,423 +66264,427 @@
       </c>
       <c r="CX103">
         <v>0.99309999999999998</v>
+      </c>
+      <c r="CY103">
+        <f t="shared" si="5"/>
+        <v>99.31</v>
       </c>
       <c r="CZ103">
         <f>SUM(B103:CX103)</f>
         <v>1.0000008541000001</v>
       </c>
       <c r="DC103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1281899999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
-        <f t="shared" ref="B106:U106" si="6">SUM(B3:B103)</f>
+        <f t="shared" ref="B106:U106" si="8">SUM(B3:B103)</f>
         <v>0</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16666700000000001</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1944448</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22685222999999999</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.264660805</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30877082100000003</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.50984801858584405</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.2507625742087457</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26014901928353862</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30350681951002095</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.51284664249999956</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.78168274920000047</v>
       </c>
       <c r="P106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35147161030000007</v>
       </c>
       <c r="Q106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.79981191699999965</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.40758267719999985</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.61688890320000001</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" ref="V106:AJ106" si="7">SUM(V3:V103)</f>
+        <f t="shared" ref="V106:AJ106" si="9">SUM(V3:V103)</f>
         <v>0.36257378609999974</v>
       </c>
       <c r="W106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36441840409999976</v>
       </c>
       <c r="X106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29187221460000018</v>
       </c>
       <c r="Z106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27258985909999994</v>
       </c>
       <c r="AA106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.62148579999999976</v>
       </c>
       <c r="AC106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25834989190000013</v>
       </c>
       <c r="AD106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2406741225</v>
       </c>
       <c r="AF106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23214035499999999</v>
       </c>
       <c r="AG106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22539758779999994</v>
       </c>
       <c r="AH106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26295619139999987</v>
       </c>
       <c r="AI106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20321320460000006</v>
       </c>
       <c r="AJ106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.47203670900000005</v>
       </c>
       <c r="AK106" s="1">
-        <f t="shared" ref="AK106:CV106" si="8">SUM(AK3:AK103)</f>
+        <f t="shared" ref="AK106:CV106" si="10">SUM(AK3:AK103)</f>
         <v>0.27268019680000011</v>
       </c>
       <c r="AL106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.60758257820000028</v>
       </c>
       <c r="AN106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.30302176619999999</v>
       </c>
       <c r="AO106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.62266470100000004</v>
       </c>
       <c r="AP106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.3795855407999999</v>
       </c>
       <c r="AQ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.7438882139999996</v>
       </c>
       <c r="AS106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44270130369999994</v>
       </c>
       <c r="AT106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.41521841910000012</v>
       </c>
       <c r="AU106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.43391142300000002</v>
       </c>
       <c r="AV106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.40246425889999976</v>
       </c>
       <c r="AW106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.40627577199999998</v>
       </c>
       <c r="AY106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35001531000000002</v>
       </c>
       <c r="AZ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.33456930409999991</v>
       </c>
       <c r="BA106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.32113005030000003</v>
       </c>
       <c r="BB106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.30233700400000024</v>
       </c>
       <c r="BC106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BD106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28565155500000011</v>
       </c>
       <c r="BE106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.26555077430000007</v>
       </c>
       <c r="BF106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25147584930000016</v>
       </c>
       <c r="BG106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23762940570000002</v>
       </c>
       <c r="BH106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.2237152184</v>
       </c>
       <c r="BI106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.21061395230000002</v>
       </c>
       <c r="BJ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24570638069999995</v>
       </c>
       <c r="BK106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23904946950000014</v>
       </c>
       <c r="BL106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23463256710000002</v>
       </c>
       <c r="BM106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BN106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51024618799999977</v>
       </c>
       <c r="BO106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23997927809999997</v>
       </c>
       <c r="BP106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24487253080000004</v>
       </c>
       <c r="BQ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24473427850000001</v>
       </c>
       <c r="BR106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24568223279999998</v>
       </c>
       <c r="BS106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24752460899999992</v>
       </c>
       <c r="BT106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.63200173199999998</v>
       </c>
       <c r="BU106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.30904176329999966</v>
       </c>
       <c r="BV106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.32054704600000011</v>
       </c>
       <c r="BW106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69733419600000002</v>
       </c>
       <c r="BX106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69421857599999981</v>
       </c>
       <c r="BY106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.82923056200000034</v>
       </c>
       <c r="BZ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CA106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CB106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.42342635599999995</v>
       </c>
       <c r="CC106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44056667300000008</v>
       </c>
       <c r="CD106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39777967399999992</v>
       </c>
       <c r="CE106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.34838466200000001</v>
       </c>
       <c r="CF106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.26827013349999995</v>
       </c>
       <c r="CG106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CH106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CI106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24241775160000015</v>
       </c>
       <c r="CJ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.441227219</v>
       </c>
       <c r="CK106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.21664130389999989</v>
       </c>
       <c r="CL106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19469122809999997</v>
       </c>
       <c r="CM106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18243181339999995</v>
       </c>
       <c r="CN106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.21282575100000015</v>
       </c>
       <c r="CO106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.82849802000000017</v>
       </c>
       <c r="CP106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="CQ106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27241704900000008</v>
       </c>
       <c r="CR106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28170904600000007</v>
       </c>
       <c r="CS106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29620609999999992</v>
       </c>
       <c r="CT106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31516098899999978</v>
       </c>
       <c r="CU106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.33220983600000004</v>
       </c>
       <c r="CV106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.56248758800000009</v>
       </c>
       <c r="CW106" s="1">
-        <f t="shared" ref="CW106:CX106" si="9">SUM(CW3:CW103)</f>
+        <f t="shared" ref="CW106:CX106" si="11">SUM(CW3:CW103)</f>
         <v>0</v>
       </c>
       <c r="CX106" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71.231571505000019</v>
       </c>
     </row>
-    <row r="107" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:107" x14ac:dyDescent="0.25">
       <c r="V107" s="1"/>
     </row>
   </sheetData>
@@ -65974,9 +66713,9 @@
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -66284,7 +67023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -66593,7 +67332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -66902,7 +67641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -67211,7 +67950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -67520,7 +68259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -67829,7 +68568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -68138,7 +68877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -68447,7 +69186,7 @@
         <v>1.61444E-36</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -68756,7 +69495,7 @@
         <v>6.1393400000000003E-37</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -69065,7 +69804,7 @@
         <v>8.4739900000000002E-37</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -69374,7 +70113,7 @@
         <v>1.16965E-36</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -69683,7 +70422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -69992,7 +70731,7 @@
         <v>4.4650900000000003E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -70301,7 +71040,7 @@
         <v>7.3661399999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -70610,7 +71349,7 @@
         <v>2.0868300000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -70919,7 +71658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -71228,7 +71967,7 @@
         <v>1.7786700000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -71537,7 +72276,7 @@
         <v>5.5921999999999998E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -71846,7 +72585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -72155,7 +72894,7 @@
         <v>5.791E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -72464,7 +73203,7 @@
         <v>5.5131699999999999E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -72773,7 +73512,7 @@
         <v>6.1175199999999997E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -73082,7 +73821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -73391,7 +74130,7 @@
         <v>4.0592700000000002E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -73700,7 +74439,7 @@
         <v>3.7888900000000002E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -74009,7 +74748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -74318,7 +75057,7 @@
         <v>1.27537E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -74627,7 +75366,7 @@
         <v>4.7128500000000001E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -74936,7 +75675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -75245,7 +75984,7 @@
         <v>4.4650900000000003E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -75554,7 +76293,7 @@
         <v>4.5366700000000001E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -75863,7 +76602,7 @@
         <v>4.6685699999999999E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -76172,7 +76911,7 @@
         <v>5.4920300000000003E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -76481,7 +77220,7 @@
         <v>4.2111899999999999E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -76790,7 +77529,7 @@
         <v>1.0328E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -77099,7 +77838,7 @@
         <v>5.9444000000000002E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -77408,7 +78147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -77717,7 +78456,7 @@
         <v>7.8600499999999994E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -78026,7 +78765,7 @@
         <v>5.9680599999999999E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -78335,7 +79074,7 @@
         <v>1.7182699999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -78644,7 +79383,7 @@
         <v>8.33997E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -78953,7 +79692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -79262,7 +80001,7 @@
         <v>1.4137399999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -79571,7 +80310,7 @@
         <v>9.4344200000000004E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -79880,7 +80619,7 @@
         <v>9.7121100000000001E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -80189,7 +80928,7 @@
         <v>1.03725E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -80498,7 +81237,7 @@
         <v>9.1712999999999994E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -80807,7 +81546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -81116,7 +81855,7 @@
         <v>9.3179300000000004E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -81425,7 +82164,7 @@
         <v>8.4678600000000006E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -81734,7 +82473,7 @@
         <v>8.2973799999999995E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -82043,7 +82782,7 @@
         <v>8.0478399999999998E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -82352,7 +83091,7 @@
         <v>7.63781E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -82661,7 +83400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -82970,7 +83709,7 @@
         <v>7.3673300000000005E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -83279,7 +84018,7 @@
         <v>7.0232699999999996E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -83588,7 +84327,7 @@
         <v>6.7684700000000006E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -83897,7 +84636,7 @@
         <v>6.4987999999999995E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -84206,7 +84945,7 @@
         <v>6.2255700000000001E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -84515,7 +85254,7 @@
         <v>5.9764800000000001E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -84824,7 +85563,7 @@
         <v>7.0306299999999995E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -85133,7 +85872,7 @@
         <v>6.97124E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -85442,7 +86181,7 @@
         <v>6.9620600000000002E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -85751,7 +86490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -86060,7 +86799,7 @@
         <v>1.03071E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -86369,7 +87108,7 @@
         <v>6.5698500000000001E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
@@ -86678,7 +87417,7 @@
         <v>6.6745100000000006E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -86987,7 +87726,7 @@
         <v>6.6116899999999997E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -87296,7 +88035,7 @@
         <v>6.5482700000000002E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -87605,7 +88344,7 @@
         <v>6.4752900000000001E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -87914,7 +88653,7 @@
         <v>2.1522499999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -88223,7 +88962,7 @@
         <v>9.5956299999999995E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -88532,7 +89271,7 @@
         <v>1.0129299999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -88841,7 +89580,7 @@
         <v>1.8728000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -89150,7 +89889,7 @@
         <v>2.0243099999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -89459,7 +90198,7 @@
         <v>2.8227100000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -89768,7 +90507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -90077,7 +90816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -90386,7 +91125,7 @@
         <v>1.3639300000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -90695,7 +91434,7 @@
         <v>1.4258399999999999E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -91004,7 +91743,7 @@
         <v>1.3469999999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -91313,7 +92052,7 @@
         <v>1.2275400000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -91622,7 +92361,7 @@
         <v>9.46175E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -91931,7 +92670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -92240,7 +92979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -92549,7 +93288,7 @@
         <v>8.7249000000000004E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -92858,7 +93597,7 @@
         <v>1.4745099999999999E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -93167,7 +93906,7 @@
         <v>7.9737899999999994E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -93476,7 +94215,7 @@
         <v>7.2150599999999993E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -93785,7 +94524,7 @@
         <v>6.8187800000000005E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -94094,7 +94833,7 @@
         <v>8.0215000000000004E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -94403,7 +95142,7 @@
         <v>2.8564399999999999E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -94712,7 +95451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -95021,7 +95760,7 @@
         <v>1.03349E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -95330,7 +96069,7 @@
         <v>1.07514E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -95639,7 +96378,7 @@
         <v>1.13751E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -95948,7 +96687,7 @@
         <v>1.2178799999999999E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -96257,7 +96996,7 @@
         <v>1.29121E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -96566,7 +97305,7 @@
         <v>2.12819E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -96875,7 +97614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>100</v>
